--- a/MSNBC_Primetime.xlsx
+++ b/MSNBC_Primetime.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Politics\MSM-Negativity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88D1BF70-A84B-4714-A304-32250E795B25}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{057C0B19-3642-43A6-B1AE-6345D30F863C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{BC77F161-E16B-409C-95C8-B3194E11CB15}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{BC77F161-E16B-409C-95C8-B3194E11CB15}"/>
   </bookViews>
   <sheets>
     <sheet name="Bernie 2020" sheetId="1" r:id="rId1"/>
     <sheet name="Top 4 2020" sheetId="2" r:id="rId2"/>
     <sheet name="Top 6 2019-2020" sheetId="3" r:id="rId3"/>
+    <sheet name="Weekly Top 5 2019-2020" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="78">
   <si>
     <t>Date</t>
   </si>
@@ -59,6 +60,216 @@
   </si>
   <si>
     <t>% Bloomberg</t>
+  </si>
+  <si>
+    <t>Year-Week</t>
+  </si>
+  <si>
+    <t>2019-01</t>
+  </si>
+  <si>
+    <t>2019-02</t>
+  </si>
+  <si>
+    <t>2019-03</t>
+  </si>
+  <si>
+    <t>2019-04</t>
+  </si>
+  <si>
+    <t>2019-05</t>
+  </si>
+  <si>
+    <t>2019-06</t>
+  </si>
+  <si>
+    <t>2019-07</t>
+  </si>
+  <si>
+    <t>2019-08</t>
+  </si>
+  <si>
+    <t>2019-09</t>
+  </si>
+  <si>
+    <t>2019-10</t>
+  </si>
+  <si>
+    <t>2019-11</t>
+  </si>
+  <si>
+    <t>2019-12</t>
+  </si>
+  <si>
+    <t>2019-13</t>
+  </si>
+  <si>
+    <t>2019-14</t>
+  </si>
+  <si>
+    <t>2019-15</t>
+  </si>
+  <si>
+    <t>2019-16</t>
+  </si>
+  <si>
+    <t>2019-17</t>
+  </si>
+  <si>
+    <t>2019-18</t>
+  </si>
+  <si>
+    <t>2019-19</t>
+  </si>
+  <si>
+    <t>2019-20</t>
+  </si>
+  <si>
+    <t>2019-21</t>
+  </si>
+  <si>
+    <t>2019-22</t>
+  </si>
+  <si>
+    <t>2019-23</t>
+  </si>
+  <si>
+    <t>2019-24</t>
+  </si>
+  <si>
+    <t>2019-25</t>
+  </si>
+  <si>
+    <t>2019-26</t>
+  </si>
+  <si>
+    <t>2019-27</t>
+  </si>
+  <si>
+    <t>2019-28</t>
+  </si>
+  <si>
+    <t>2019-29</t>
+  </si>
+  <si>
+    <t>2019-30</t>
+  </si>
+  <si>
+    <t>2019-31</t>
+  </si>
+  <si>
+    <t>2019-32</t>
+  </si>
+  <si>
+    <t>2019-33</t>
+  </si>
+  <si>
+    <t>2019-34</t>
+  </si>
+  <si>
+    <t>2019-35</t>
+  </si>
+  <si>
+    <t>2019-36</t>
+  </si>
+  <si>
+    <t>2019-37</t>
+  </si>
+  <si>
+    <t>2019-38</t>
+  </si>
+  <si>
+    <t>2019-39</t>
+  </si>
+  <si>
+    <t>2019-40</t>
+  </si>
+  <si>
+    <t>2019-41</t>
+  </si>
+  <si>
+    <t>2019-42</t>
+  </si>
+  <si>
+    <t>2019-43</t>
+  </si>
+  <si>
+    <t>2019-44</t>
+  </si>
+  <si>
+    <t>2019-45</t>
+  </si>
+  <si>
+    <t>2019-46</t>
+  </si>
+  <si>
+    <t>2019-47</t>
+  </si>
+  <si>
+    <t>2019-48</t>
+  </si>
+  <si>
+    <t>2019-49</t>
+  </si>
+  <si>
+    <t>2019-50</t>
+  </si>
+  <si>
+    <t>2019-51</t>
+  </si>
+  <si>
+    <t>2019-52</t>
+  </si>
+  <si>
+    <t>2019-53</t>
+  </si>
+  <si>
+    <t>2020-01</t>
+  </si>
+  <si>
+    <t>2020-02</t>
+  </si>
+  <si>
+    <t>2020-03</t>
+  </si>
+  <si>
+    <t>2020-04</t>
+  </si>
+  <si>
+    <t>2020-05</t>
+  </si>
+  <si>
+    <t>2020-06</t>
+  </si>
+  <si>
+    <t>2020-07</t>
+  </si>
+  <si>
+    <t>2020-08</t>
+  </si>
+  <si>
+    <t>2020-09</t>
+  </si>
+  <si>
+    <t>2020-10</t>
+  </si>
+  <si>
+    <t>2020-11</t>
+  </si>
+  <si>
+    <t>2020-12</t>
+  </si>
+  <si>
+    <t>2020-13</t>
+  </si>
+  <si>
+    <t>2020-14</t>
+  </si>
+  <si>
+    <t>2020-15</t>
+  </si>
+  <si>
+    <t>2020-16</t>
   </si>
 </sst>
 </file>
@@ -14445,6 +14656,2739 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="2000" baseline="0"/>
+              <a:t>% of Weekly Speaking Time on</a:t>
+            </a:r>
+            <a:br>
+              <a:rPr lang="en-US" sz="2000" baseline="0"/>
+            </a:br>
+            <a:r>
+              <a:rPr lang="en-US" sz="2000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>1,585 Hours of </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="2000" baseline="0"/>
+              <a:t>MSNBC Primetime Shows</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.38009883427913155"/>
+          <c:y val="2.3552501296619361E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="4.0780659898809406E-2"/>
+          <c:y val="0.18268463073852295"/>
+          <c:w val="0.94444021180644189"/>
+          <c:h val="0.73750176811730872"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Weekly Top 5 2019-2020'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>% Bernie</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Weekly Top 5 2019-2020'!$A$2:$A$69</c:f>
+              <c:strCache>
+                <c:ptCount val="68"/>
+                <c:pt idx="0">
+                  <c:v>2019-01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2019-02</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2019-03</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2019-04</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2019-05</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2019-06</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2019-07</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2019-08</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2019-09</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2019-10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2019-11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2019-12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2019-13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2019-14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2019-15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2019-16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2019-17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2019-18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2019-19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2019-20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2019-21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2019-22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2019-23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2019-24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2019-25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2019-26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2019-27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2019-28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2019-29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2019-30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2019-31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2019-32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2019-33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2019-34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2019-35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2019-36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2019-37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2019-38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2019-39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2019-40</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2019-41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2019-42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2019-43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2019-44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2019-45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2019-46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2019-47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2019-48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2019-49</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2019-50</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2019-51</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2019-52</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2019-53</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2020-01</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2020-02</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2020-03</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2020-04</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2020-05</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2020-06</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2020-07</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>2020-08</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>2020-09</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2020-10</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>2020-11</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>2020-12</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>2020-13</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>2020-14</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>2020-15</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Weekly Top 5 2019-2020'!$B$2:$B$69</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="68"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.56999999999999995</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.88</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.72</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.56000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.73</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.93</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.57999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>3.81</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.53</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.43</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.69</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CB2C-4156-8A58-8BC301CCAA4B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Weekly Top 5 2019-2020'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>% Biden</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="E9F22C"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Weekly Top 5 2019-2020'!$A$2:$A$69</c:f>
+              <c:strCache>
+                <c:ptCount val="68"/>
+                <c:pt idx="0">
+                  <c:v>2019-01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2019-02</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2019-03</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2019-04</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2019-05</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2019-06</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2019-07</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2019-08</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2019-09</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2019-10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2019-11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2019-12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2019-13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2019-14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2019-15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2019-16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2019-17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2019-18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2019-19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2019-20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2019-21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2019-22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2019-23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2019-24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2019-25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2019-26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2019-27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2019-28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2019-29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2019-30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2019-31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2019-32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2019-33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2019-34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2019-35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2019-36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2019-37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2019-38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2019-39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2019-40</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2019-41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2019-42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2019-43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2019-44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2019-45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2019-46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2019-47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2019-48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2019-49</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2019-50</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2019-51</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2019-52</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2019-53</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2020-01</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2020-02</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2020-03</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2020-04</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2020-05</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2020-06</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2020-07</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>2020-08</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>2020-09</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2020-10</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>2020-11</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>2020-12</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>2020-13</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>2020-14</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>2020-15</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Weekly Top 5 2019-2020'!$C$2:$C$69</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="68"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.54</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.47</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.04</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.72</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.27</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.53</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>5.29</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.77</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.24</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-CB2C-4156-8A58-8BC301CCAA4B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Weekly Top 5 2019-2020'!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>% Kamala</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Weekly Top 5 2019-2020'!$A$2:$A$69</c:f>
+              <c:strCache>
+                <c:ptCount val="68"/>
+                <c:pt idx="0">
+                  <c:v>2019-01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2019-02</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2019-03</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2019-04</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2019-05</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2019-06</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2019-07</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2019-08</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2019-09</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2019-10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2019-11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2019-12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2019-13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2019-14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2019-15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2019-16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2019-17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2019-18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2019-19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2019-20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2019-21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2019-22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2019-23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2019-24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2019-25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2019-26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2019-27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2019-28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2019-29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2019-30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2019-31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2019-32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2019-33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2019-34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2019-35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2019-36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2019-37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2019-38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2019-39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2019-40</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2019-41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2019-42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2019-43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2019-44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2019-45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2019-46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2019-47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2019-48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2019-49</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2019-50</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2019-51</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2019-52</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2019-53</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2020-01</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2020-02</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2020-03</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2020-04</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2020-05</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2020-06</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2020-07</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>2020-08</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>2020-09</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2020-10</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>2020-11</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>2020-12</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>2020-13</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>2020-14</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>2020-15</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Weekly Top 5 2019-2020'!$F$2:$F$69</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="68"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.82</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.43</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.68</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.87</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.03</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.04</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.39</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.56999999999999995</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.53</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.0900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.83</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.87</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.53</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-CB2C-4156-8A58-8BC301CCAA4B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Weekly Top 5 2019-2020'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>% Warren</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="00B050"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Weekly Top 5 2019-2020'!$A$2:$A$69</c:f>
+              <c:strCache>
+                <c:ptCount val="68"/>
+                <c:pt idx="0">
+                  <c:v>2019-01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2019-02</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2019-03</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2019-04</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2019-05</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2019-06</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2019-07</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2019-08</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2019-09</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2019-10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2019-11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2019-12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2019-13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2019-14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2019-15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2019-16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2019-17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2019-18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2019-19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2019-20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2019-21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2019-22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2019-23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2019-24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2019-25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2019-26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2019-27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2019-28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2019-29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2019-30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2019-31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2019-32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2019-33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2019-34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2019-35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2019-36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2019-37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2019-38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2019-39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2019-40</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2019-41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2019-42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2019-43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2019-44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2019-45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2019-46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2019-47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2019-48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2019-49</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2019-50</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2019-51</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2019-52</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2019-53</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2020-01</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2020-02</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2020-03</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2020-04</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2020-05</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2020-06</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2020-07</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>2020-08</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>2020-09</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2020-10</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>2020-11</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>2020-12</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>2020-13</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>2020-14</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>2020-15</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Weekly Top 5 2019-2020'!$D$2:$D$69</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="68"/>
+                <c:pt idx="0">
+                  <c:v>6.31</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.61</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.53</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.06</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.37</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.77</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.72</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.63</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.17</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.88</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>3.32</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1.78</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.43</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.47</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.97</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>3.36</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.61</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-CB2C-4156-8A58-8BC301CCAA4B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Weekly Top 5 2019-2020'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>% Pete</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="00B0F0"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Weekly Top 5 2019-2020'!$A$2:$A$69</c:f>
+              <c:strCache>
+                <c:ptCount val="68"/>
+                <c:pt idx="0">
+                  <c:v>2019-01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2019-02</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2019-03</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2019-04</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2019-05</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2019-06</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2019-07</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2019-08</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2019-09</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2019-10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2019-11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2019-12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2019-13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2019-14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2019-15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2019-16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2019-17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2019-18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2019-19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2019-20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2019-21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2019-22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2019-23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2019-24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2019-25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2019-26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2019-27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2019-28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2019-29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2019-30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2019-31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2019-32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2019-33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2019-34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2019-35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2019-36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2019-37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2019-38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2019-39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2019-40</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2019-41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2019-42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2019-43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2019-44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2019-45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2019-46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2019-47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2019-48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2019-49</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2019-50</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2019-51</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2019-52</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2019-53</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2020-01</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2020-02</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2020-03</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2020-04</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2020-05</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2020-06</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2020-07</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>2020-08</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>2020-09</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2020-10</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>2020-11</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>2020-12</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>2020-13</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>2020-14</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>2020-15</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Weekly Top 5 2019-2020'!$E$2:$E$69</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="68"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.06</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.53</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.51</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.87</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.64</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.48</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.63</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.54</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.41</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1.04</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.93</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.83</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.43</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-CB2C-4156-8A58-8BC301CCAA4B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="1546577328"/>
+        <c:axId val="1544060096"/>
+        <c:extLst/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1546577328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" baseline="0"/>
+                  <a:t>Show Week</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="3.2566418599171365E-2"/>
+              <c:y val="0.9651707084518627"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="####\-##" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-2400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1544060096"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="0"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="10"/>
+        <c:tickLblSkip val="1"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1544060096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="21"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" baseline="0"/>
+                  <a:t>% of All Words Spoken by Select Candidates</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1546577328"/>
+        <c:crossesAt val="1"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:legendEntry>
+        <c:idx val="2"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.35421531473154383"/>
+          <c:y val="0.97019530492820116"/>
+          <c:w val="0.30392041775074541"/>
+          <c:h val="2.7226715247234946E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -14526,6 +17470,46 @@
 </file>
 
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -16091,6 +19075,511 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -16194,6 +19683,49 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBE0C3E1-FB4B-4EB5-AD73-532B1F1DDF44}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>586740</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41271A4F-E601-4857-AF80-B1B8DEFD1B76}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17982,8 +21514,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02BBD173-E439-4146-BC63-7EE505B0776D}">
   <dimension ref="A1:G302"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L113" sqref="L113"/>
+    <sheetView topLeftCell="L26" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -24941,4 +28473,1420 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C889812-8799-449E-B569-B2E95645638D}">
+  <dimension ref="A1:F70"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="T46" sqref="S46:T47"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>6.31</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0.61</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>1.06</v>
+      </c>
+      <c r="F5">
+        <v>2.82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>1.53</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0.1</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8">
+        <v>0.01</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0.04</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9">
+        <v>0.06</v>
+      </c>
+      <c r="C9">
+        <v>0.11</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10">
+        <v>0.03</v>
+      </c>
+      <c r="C10">
+        <v>0.03</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11">
+        <v>0.01</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>1.06</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0.04</v>
+      </c>
+      <c r="D12">
+        <v>0.01</v>
+      </c>
+      <c r="E12">
+        <v>0.21</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13">
+        <v>0.04</v>
+      </c>
+      <c r="C13">
+        <v>0.09</v>
+      </c>
+      <c r="D13">
+        <v>0.78</v>
+      </c>
+      <c r="E13">
+        <v>0.06</v>
+      </c>
+      <c r="F13">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14">
+        <v>0.46</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0.98</v>
+      </c>
+      <c r="E14">
+        <v>0.53</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15">
+        <v>0.1</v>
+      </c>
+      <c r="C15">
+        <v>0.54</v>
+      </c>
+      <c r="D15">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="E15">
+        <v>0.76</v>
+      </c>
+      <c r="F15">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16">
+        <v>0.04</v>
+      </c>
+      <c r="C16">
+        <v>0.01</v>
+      </c>
+      <c r="D16">
+        <v>0.35</v>
+      </c>
+      <c r="E16">
+        <v>0.51</v>
+      </c>
+      <c r="F16">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0.37</v>
+      </c>
+      <c r="E17">
+        <v>1.87</v>
+      </c>
+      <c r="F17">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18">
+        <v>0.24</v>
+      </c>
+      <c r="C18">
+        <v>0.47</v>
+      </c>
+      <c r="D18">
+        <v>0.5</v>
+      </c>
+      <c r="E18">
+        <v>0.12</v>
+      </c>
+      <c r="F18">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="C19">
+        <v>0.36</v>
+      </c>
+      <c r="D19">
+        <v>0.77</v>
+      </c>
+      <c r="E19">
+        <v>0.06</v>
+      </c>
+      <c r="F19">
+        <v>1.68</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20">
+        <v>0.06</v>
+      </c>
+      <c r="C20">
+        <v>0.05</v>
+      </c>
+      <c r="D20">
+        <v>0.72</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21">
+        <v>0.03</v>
+      </c>
+      <c r="C21">
+        <v>0.04</v>
+      </c>
+      <c r="D21">
+        <v>0.08</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22">
+        <v>0.01</v>
+      </c>
+      <c r="C22">
+        <v>0.08</v>
+      </c>
+      <c r="D22">
+        <v>0.02</v>
+      </c>
+      <c r="E22">
+        <v>0.25</v>
+      </c>
+      <c r="F22">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23">
+        <v>0.04</v>
+      </c>
+      <c r="C23">
+        <v>0.01</v>
+      </c>
+      <c r="D23">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E23">
+        <v>0.64</v>
+      </c>
+      <c r="F23">
+        <v>3.87</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24">
+        <v>0.05</v>
+      </c>
+      <c r="C24">
+        <v>0.15</v>
+      </c>
+      <c r="D24">
+        <v>2.63</v>
+      </c>
+      <c r="E24">
+        <v>2.48</v>
+      </c>
+      <c r="F24">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25">
+        <v>0.5</v>
+      </c>
+      <c r="C25">
+        <v>0.4</v>
+      </c>
+      <c r="D25">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="E25">
+        <v>0.12</v>
+      </c>
+      <c r="F25">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26">
+        <v>0.02</v>
+      </c>
+      <c r="C26">
+        <v>0.36</v>
+      </c>
+      <c r="D26">
+        <v>0.13</v>
+      </c>
+      <c r="E26">
+        <v>0.05</v>
+      </c>
+      <c r="F26">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27">
+        <v>0.18</v>
+      </c>
+      <c r="C27">
+        <v>1.04</v>
+      </c>
+      <c r="D27">
+        <v>0.13</v>
+      </c>
+      <c r="E27">
+        <v>0.15</v>
+      </c>
+      <c r="F27">
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28">
+        <v>0.06</v>
+      </c>
+      <c r="C28">
+        <v>0.1</v>
+      </c>
+      <c r="D28">
+        <v>0.06</v>
+      </c>
+      <c r="E28">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="F28">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29">
+        <v>0.88</v>
+      </c>
+      <c r="C29">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D29">
+        <v>0.04</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>37</v>
+      </c>
+      <c r="B30">
+        <v>0.03</v>
+      </c>
+      <c r="C30">
+        <v>0.17</v>
+      </c>
+      <c r="D30">
+        <v>0.23</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>38</v>
+      </c>
+      <c r="B31">
+        <v>0.02</v>
+      </c>
+      <c r="C31">
+        <v>0.09</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>39</v>
+      </c>
+      <c r="B32">
+        <v>0.09</v>
+      </c>
+      <c r="C32">
+        <v>0.45</v>
+      </c>
+      <c r="D32">
+        <v>0.15</v>
+      </c>
+      <c r="E32">
+        <v>0.04</v>
+      </c>
+      <c r="F32">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>40</v>
+      </c>
+      <c r="B33">
+        <v>0.03</v>
+      </c>
+      <c r="C33">
+        <v>0.72</v>
+      </c>
+      <c r="D33">
+        <v>0.08</v>
+      </c>
+      <c r="E33">
+        <v>0.63</v>
+      </c>
+      <c r="F33">
+        <v>0.56999999999999995</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>41</v>
+      </c>
+      <c r="B34">
+        <v>0.48</v>
+      </c>
+      <c r="C34">
+        <v>0.01</v>
+      </c>
+      <c r="D34">
+        <v>0.04</v>
+      </c>
+      <c r="E34">
+        <v>0.01</v>
+      </c>
+      <c r="F34">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>42</v>
+      </c>
+      <c r="B35">
+        <v>0.46</v>
+      </c>
+      <c r="C35">
+        <v>0.11</v>
+      </c>
+      <c r="D35">
+        <v>0.11</v>
+      </c>
+      <c r="E35">
+        <v>0.06</v>
+      </c>
+      <c r="F35">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>43</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <v>0.32</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>44</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <v>0.06</v>
+      </c>
+      <c r="D37">
+        <v>0.03</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>45</v>
+      </c>
+      <c r="B38">
+        <v>0.02</v>
+      </c>
+      <c r="C38">
+        <v>0.26</v>
+      </c>
+      <c r="D38">
+        <v>0.17</v>
+      </c>
+      <c r="E38">
+        <v>0.54</v>
+      </c>
+      <c r="F38">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>46</v>
+      </c>
+      <c r="B39">
+        <v>0.72</v>
+      </c>
+      <c r="C39">
+        <v>0.12</v>
+      </c>
+      <c r="D39">
+        <v>1.17</v>
+      </c>
+      <c r="E39">
+        <v>0.08</v>
+      </c>
+      <c r="F39">
+        <v>1.0900000000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>47</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D40">
+        <v>0.01</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>48</v>
+      </c>
+      <c r="B41">
+        <v>0.04</v>
+      </c>
+      <c r="C41">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>49</v>
+      </c>
+      <c r="B42">
+        <v>0.24</v>
+      </c>
+      <c r="C42">
+        <v>0.26</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>50</v>
+      </c>
+      <c r="B43">
+        <v>0.03</v>
+      </c>
+      <c r="C43">
+        <v>0.03</v>
+      </c>
+      <c r="D43">
+        <v>0.01</v>
+      </c>
+      <c r="E43">
+        <v>0.1</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>51</v>
+      </c>
+      <c r="B44">
+        <v>0.08</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>52</v>
+      </c>
+      <c r="B45">
+        <v>0.01</v>
+      </c>
+      <c r="C45">
+        <v>0.06</v>
+      </c>
+      <c r="D45">
+        <v>0.03</v>
+      </c>
+      <c r="E45">
+        <v>0.04</v>
+      </c>
+      <c r="F45">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>53</v>
+      </c>
+      <c r="B46">
+        <v>0.02</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>0.02</v>
+      </c>
+      <c r="F46">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>54</v>
+      </c>
+      <c r="B47">
+        <v>0</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>0.03</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>55</v>
+      </c>
+      <c r="B48">
+        <v>0.04</v>
+      </c>
+      <c r="C48">
+        <v>0.12</v>
+      </c>
+      <c r="D48">
+        <v>0.01</v>
+      </c>
+      <c r="E48">
+        <v>0.13</v>
+      </c>
+      <c r="F48">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>56</v>
+      </c>
+      <c r="B49">
+        <v>0.02</v>
+      </c>
+      <c r="C49">
+        <v>0.06</v>
+      </c>
+      <c r="D49">
+        <v>0.04</v>
+      </c>
+      <c r="E49">
+        <v>0.05</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>57</v>
+      </c>
+      <c r="B50">
+        <v>0.35</v>
+      </c>
+      <c r="C50">
+        <v>0.25</v>
+      </c>
+      <c r="D50">
+        <v>0.88</v>
+      </c>
+      <c r="E50">
+        <v>0.11</v>
+      </c>
+      <c r="F50">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>58</v>
+      </c>
+      <c r="B51">
+        <v>0</v>
+      </c>
+      <c r="C51">
+        <v>0.01</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>59</v>
+      </c>
+      <c r="B52">
+        <v>0.09</v>
+      </c>
+      <c r="C52">
+        <v>0.17</v>
+      </c>
+      <c r="D52">
+        <v>0.45</v>
+      </c>
+      <c r="E52">
+        <v>0.41</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>60</v>
+      </c>
+      <c r="B53">
+        <v>0.12</v>
+      </c>
+      <c r="C53">
+        <v>0.21</v>
+      </c>
+      <c r="D53">
+        <v>0.01</v>
+      </c>
+      <c r="E53">
+        <v>0.04</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>61</v>
+      </c>
+      <c r="B54">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C54">
+        <v>0.27</v>
+      </c>
+      <c r="D54">
+        <v>0.23</v>
+      </c>
+      <c r="E54">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="F54">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>62</v>
+      </c>
+      <c r="B55">
+        <v>0.03</v>
+      </c>
+      <c r="C55">
+        <v>0.09</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <v>0.06</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>63</v>
+      </c>
+      <c r="B56">
+        <v>0.03</v>
+      </c>
+      <c r="C56">
+        <v>0.05</v>
+      </c>
+      <c r="D56">
+        <v>0.95</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>64</v>
+      </c>
+      <c r="B57">
+        <v>0.11</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0.08</v>
+      </c>
+      <c r="E57">
+        <v>0.03</v>
+      </c>
+      <c r="F57">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>65</v>
+      </c>
+      <c r="B58">
+        <v>0.15</v>
+      </c>
+      <c r="C58">
+        <v>0.34</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>66</v>
+      </c>
+      <c r="B59">
+        <v>0</v>
+      </c>
+      <c r="C59">
+        <v>0.2</v>
+      </c>
+      <c r="D59">
+        <v>3.32</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>67</v>
+      </c>
+      <c r="B60">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="C60">
+        <v>0.53</v>
+      </c>
+      <c r="D60">
+        <v>1.78</v>
+      </c>
+      <c r="E60">
+        <v>1.04</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>68</v>
+      </c>
+      <c r="B61">
+        <v>0.73</v>
+      </c>
+      <c r="C61">
+        <v>0.21</v>
+      </c>
+      <c r="D61">
+        <v>1.43</v>
+      </c>
+      <c r="E61">
+        <v>0.93</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>69</v>
+      </c>
+      <c r="B62">
+        <v>0.93</v>
+      </c>
+      <c r="C62">
+        <v>0.34</v>
+      </c>
+      <c r="D62">
+        <v>0.47</v>
+      </c>
+      <c r="E62">
+        <v>0.83</v>
+      </c>
+      <c r="F62">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>70</v>
+      </c>
+      <c r="B63">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="C63">
+        <v>0.33</v>
+      </c>
+      <c r="D63">
+        <v>0.97</v>
+      </c>
+      <c r="E63">
+        <v>0.18</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>71</v>
+      </c>
+      <c r="B64">
+        <v>3.81</v>
+      </c>
+      <c r="C64">
+        <v>5.29</v>
+      </c>
+      <c r="D64">
+        <v>3.36</v>
+      </c>
+      <c r="E64">
+        <v>0.43</v>
+      </c>
+      <c r="F64">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>72</v>
+      </c>
+      <c r="B65">
+        <v>0.53</v>
+      </c>
+      <c r="C65">
+        <v>1.77</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+      <c r="E65">
+        <v>0.04</v>
+      </c>
+      <c r="F65">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>73</v>
+      </c>
+      <c r="B66">
+        <v>0.06</v>
+      </c>
+      <c r="C66">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D66">
+        <v>0.61</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>74</v>
+      </c>
+      <c r="B67">
+        <v>0.43</v>
+      </c>
+      <c r="C67">
+        <v>0.11</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>75</v>
+      </c>
+      <c r="B68">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C68">
+        <v>1.24</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>76</v>
+      </c>
+      <c r="B69">
+        <v>0.69</v>
+      </c>
+      <c r="C69">
+        <v>0</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>77</v>
+      </c>
+      <c r="B70">
+        <v>0.12</v>
+      </c>
+      <c r="C70">
+        <v>0</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>